--- a/BackTest/2020-01-14 BackTest LTC.xlsx
+++ b/BackTest/2020-01-14 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-556.1536000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-516.7787000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-403.0349714500001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-532.87287145</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-450.2538714500001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-450.2538714500001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-451.7319714500001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-455.8164714500001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-459.4477714500001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-457.6434714500001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-484.1921714500001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-471.4088714500001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-471.4088714500001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-509.4757714500001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-509.4657714500001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-512.6417479599999</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-517.1417479599999</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-517.1417479599999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-517.1417479599999</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-517.1417479599999</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-479.6781479599999</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-476.0622479599999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-477.5757479599999</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-482.0157479599999</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-482.0070479599999</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-482.0070479599999</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-483.5052479599999</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-485.1208479599999</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-485.1208479599999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-485.1208479599999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-473.6116479599999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-473.6952479599998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-473.6952479599998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-474.6952479599998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-474.6952479599998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-476.3785479599998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-459.5267479599999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>296.5309891900001</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>290.8309891900001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>314.6891891900001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>210.5182891900001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>182.7915891900001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>191.7646891900001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>191.7646891900001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-419.1433108099999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-418.6451108099999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-395.5236108099999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-404.2810108099999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-402.7235108099999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-402.7235108099999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-380.4865108099999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-294.1973108099999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-284.1973108099999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-309.9499108099999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-309.9679108099999</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-152.2803108099999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-150.2849108099999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-150.3449108099999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-10.18971080999986</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-81.27981080999987</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-81.27981080999987</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-73.56471080999987</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-73.56471080999987</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-73.56471080999987</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-73.32942597999987</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-73.52942597999987</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-103.3103259799999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-111.1175259799999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-210.7110259799999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-218.6632259799999</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-94457.47972598</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-94457.47972598</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9262,17 +9262,11 @@
         <v>-93757.10831606001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>56300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9305,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9338,17 +9328,11 @@
         <v>-93778.97621606001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>56200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9377,17 +9361,11 @@
         <v>-93826.97621606001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>56200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9420,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9457,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9527,15 +9493,15 @@
         <v>-93813.88521606001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>56300</v>
+      </c>
+      <c r="J276" t="n">
+        <v>56300</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9567,10 +9533,12 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>56300</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L277" t="n">
@@ -9604,10 +9572,12 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>56300</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -9642,11 +9612,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +9645,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9716,11 +9678,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +9711,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9744,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +9777,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +9810,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9901,11 +9843,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9934,15 +9872,15 @@
         <v>-93961.97831677001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>56150</v>
+      </c>
+      <c r="J287" t="n">
+        <v>56150</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9974,10 +9912,12 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>56150</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -10008,13 +9948,17 @@
         <v>-93978.85341677001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J289" t="n">
+        <v>56150</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -10045,15 +9989,15 @@
         <v>-93978.85341677001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J290" t="n">
+        <v>56100</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10082,13 +10026,17 @@
         <v>-94000.05121677001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J291" t="n">
+        <v>56100</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10122,7 +10070,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>56100</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10156,10 +10106,14 @@
         <v>-93982.22581677001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J293" t="n">
+        <v>56100</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,10 +10147,14 @@
         <v>-93982.22581677001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>56100</v>
+      </c>
+      <c r="J294" t="n">
+        <v>56100</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,7 +10191,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>56100</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,7 +10230,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>56100</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,10 +10266,14 @@
         <v>-94384.51751677001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J297" t="n">
+        <v>56100</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10341,10 +10307,14 @@
         <v>-94388.10781677</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J298" t="n">
+        <v>56100</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,10 +10348,14 @@
         <v>-94388.10781677</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>55900</v>
+      </c>
+      <c r="J299" t="n">
+        <v>56100</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,12 +10389,14 @@
         <v>-94390.66551677001</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>55900</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>56100</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,12 +10430,14 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>55800</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>56100</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,12 +10471,14 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>55850</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>56100</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,12 +10512,14 @@
         <v>-94375.53161677001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>55850</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>56100</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,12 +10553,14 @@
         <v>-94374.94081677</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>56000</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>56100</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,10 +10594,14 @@
         <v>-94380.06131677001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J305" t="n">
+        <v>56100</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,10 +10635,14 @@
         <v>-94380.06131677001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J306" t="n">
+        <v>56100</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,10 +10676,14 @@
         <v>-94378.06131677001</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J307" t="n">
+        <v>56100</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,10 +10717,14 @@
         <v>-94452.43791677001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>56050</v>
+      </c>
+      <c r="J308" t="n">
+        <v>56100</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,10 +10758,14 @@
         <v>-94452.38097727</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J309" t="n">
+        <v>56100</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10798,7 +10802,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>56100</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10835,7 +10841,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>56100</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10872,7 +10880,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>56100</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,7 +10919,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>56100</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10946,7 +10958,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>56100</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,12 +10994,12 @@
         <v>-94419.07117727</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>56250</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>56100</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11019,12 +11033,12 @@
         <v>-94419.07117727</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>56250</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>56100</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11058,12 +11072,12 @@
         <v>-94385.15777727</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>56250</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>56100</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11097,12 +11111,12 @@
         <v>-94385.15777727</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>56300</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>56100</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,12 +11150,12 @@
         <v>-94363.09887726999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>56300</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>56100</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11175,12 +11189,12 @@
         <v>-94363.10777726999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>56350</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>56100</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11214,12 +11228,12 @@
         <v>-94363.16777726999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>56300</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>56100</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11253,12 +11267,12 @@
         <v>-94367.24517726999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>56250</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>56100</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11292,12 +11306,12 @@
         <v>-94271.46094616999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>56200</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>56100</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11334,7 +11348,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>56100</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11368,12 +11384,14 @@
         <v>-94346.58654616999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>56150</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>56100</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11407,12 +11425,14 @@
         <v>-94502.91274616998</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>56200</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>56100</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,12 +11466,14 @@
         <v>-94536.13144616998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>56100</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>56100</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11485,12 +11507,14 @@
         <v>-94532.99344616997</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>56050</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>56100</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,12 +11548,14 @@
         <v>-94592.31494616998</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>56200</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>56100</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11563,12 +11589,12 @@
         <v>-94592.31494616998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>56050</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>56100</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11602,12 +11628,14 @@
         <v>-94925.50814616997</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>56050</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>56100</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11641,12 +11669,14 @@
         <v>-94925.50814616997</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>56000</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>56100</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11680,12 +11710,14 @@
         <v>-94915.30814616998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>56000</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>56100</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,12 +11751,14 @@
         <v>-94915.20814616997</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>56050</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>56100</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,12 +11792,14 @@
         <v>-94915.82324616997</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>56100</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>56100</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11797,12 +11833,14 @@
         <v>-94913.53154616996</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>56000</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>56100</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11836,12 +11874,14 @@
         <v>-94913.53154616996</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>56100</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>56100</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11875,12 +11915,12 @@
         <v>-94913.15844616997</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>56100</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>56100</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11917,7 +11957,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>56100</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11954,7 +11996,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>56100</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11991,7 +12035,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>56100</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12025,12 +12071,14 @@
         <v>-94761.01934616997</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>56050</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>56100</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12067,7 +12115,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>56100</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12104,7 +12154,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>56100</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12141,7 +12193,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>56100</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12178,7 +12232,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>56100</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12212,12 +12268,12 @@
         <v>-94714.87554616996</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>56200</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>56100</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12251,12 +12307,12 @@
         <v>-94664.87554616996</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>56300</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>56100</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12290,12 +12346,12 @@
         <v>-94564.87554616996</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>56350</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>56100</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12329,12 +12385,12 @@
         <v>-94554.77554616996</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>56400</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>56100</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12368,12 +12424,12 @@
         <v>-94554.77554616996</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>56600</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>56100</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12407,12 +12463,12 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>56600</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>56100</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12446,12 +12502,12 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>56100</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12485,12 +12541,12 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>56100</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12524,12 +12580,12 @@
         <v>-94660.96864616996</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>56100</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12563,12 +12619,12 @@
         <v>-94789.66154616995</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>56450</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>56100</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12602,12 +12658,12 @@
         <v>-94790.28424616996</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>56350</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>56100</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12641,12 +12697,12 @@
         <v>-94778.80734616997</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>56300</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>56100</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12680,12 +12736,12 @@
         <v>-94772.59344616997</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>56350</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>56100</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12719,12 +12775,12 @@
         <v>-94772.59344616997</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>56450</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>56100</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12758,12 +12814,12 @@
         <v>-94782.59344616997</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>56450</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>56100</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,12 +12853,12 @@
         <v>-94735.05994616996</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>56350</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>56100</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12836,12 +12892,12 @@
         <v>-94717.00644616997</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>56450</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>56100</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12878,7 +12934,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>56100</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12915,7 +12973,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>56100</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12952,7 +13012,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>56100</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12989,7 +13051,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>56100</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13026,7 +13090,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>56100</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13063,7 +13129,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>56100</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13100,7 +13168,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>56100</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13137,7 +13207,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>56100</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13174,7 +13246,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>56100</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13211,7 +13285,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>56100</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13248,7 +13324,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>56100</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13282,12 +13360,12 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>56800</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>56100</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13321,12 +13399,12 @@
         <v>-94675.09254616997</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>56800</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>56100</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13360,12 +13438,12 @@
         <v>-94674.74012326996</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>56100</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13399,12 +13477,12 @@
         <v>-94686.88282326996</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>56750</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>56100</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13438,12 +13516,12 @@
         <v>-94714.76572326996</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>56700</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>56100</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13477,12 +13555,12 @@
         <v>-94694.76572326996</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>56600</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>56100</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13516,12 +13594,12 @@
         <v>-94708.75572326996</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>56700</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>56100</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13555,12 +13633,12 @@
         <v>-94703.13522326996</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>56600</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>56100</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13594,12 +13672,12 @@
         <v>-94705.02352326996</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>56100</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13633,12 +13711,12 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>56600</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>56100</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13672,12 +13750,12 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>56100</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,12 +13789,12 @@
         <v>-94806.01682326997</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>56100</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13750,12 +13828,12 @@
         <v>-94786.01682326997</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>56550</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>56100</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13789,12 +13867,12 @@
         <v>-94826.01682326997</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>56100</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,12 +13906,14 @@
         <v>-94825.99122326997</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>56450</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>56100</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13867,12 +13947,12 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>56100</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13906,12 +13986,12 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>56550</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>56100</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13948,7 +14028,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>56100</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,12 +14064,12 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>56550</v>
-      </c>
-      <c r="J393" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>56100</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,7 +14106,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>56100</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14061,7 +14145,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>56100</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,7 +14184,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>56100</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14135,7 +14223,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>56100</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14172,7 +14262,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>56100</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14206,10 +14298,14 @@
         <v>-94836.38562326996</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>56350</v>
+      </c>
+      <c r="J399" t="n">
+        <v>56100</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14243,10 +14339,14 @@
         <v>-94836.38562326996</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>56450</v>
+      </c>
+      <c r="J400" t="n">
+        <v>56100</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14280,10 +14380,14 @@
         <v>-94836.06338143996</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>56450</v>
+      </c>
+      <c r="J401" t="n">
+        <v>56100</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,7 +14424,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>56100</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14357,7 +14463,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>56100</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14394,7 +14502,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>56100</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14431,7 +14541,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>56100</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,12 +14577,12 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>56100</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14504,12 +14616,12 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J407" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>56100</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,12 +14655,12 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>56500</v>
-      </c>
-      <c r="J408" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>56100</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14582,12 +14694,12 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>56550</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>56100</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14621,12 +14733,12 @@
         <v>-94885.07668143997</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>56550</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>56100</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14660,12 +14772,12 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>56600</v>
-      </c>
-      <c r="J411" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>56100</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14699,12 +14811,12 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>56100</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14738,12 +14850,12 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>56100</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14777,12 +14889,12 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J414" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>56100</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14816,12 +14928,12 @@
         <v>-94664.16108143998</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>56650</v>
-      </c>
-      <c r="J415" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>56100</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14855,12 +14967,12 @@
         <v>-95049.68428143997</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>57250</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>56100</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14897,7 +15009,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>56100</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,7 +15048,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>56100</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14971,7 +15087,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>56100</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15008,7 +15126,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>56100</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15045,7 +15165,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>56100</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15082,7 +15204,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>56100</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15119,7 +15243,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>56100</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15156,7 +15282,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>56100</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15193,7 +15321,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>56100</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15230,7 +15360,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>56100</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,7 +15399,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>56100</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15304,7 +15438,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>56100</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15341,7 +15477,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>56100</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,7 +15516,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>56100</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15415,7 +15555,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>56100</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15452,7 +15594,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>56100</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15489,7 +15633,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>56100</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15526,7 +15672,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>56100</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15563,7 +15711,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>56100</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15600,7 +15750,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>56100</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,7 +15789,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>56100</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15674,7 +15828,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>56100</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,7 +15867,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>56100</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15748,7 +15906,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>56100</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15785,7 +15945,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>56100</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15822,7 +15984,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>56100</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,7 +16023,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>56100</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15896,7 +16062,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>56100</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15933,7 +16101,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>56100</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,7 +16140,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>56100</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16007,7 +16179,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>56100</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16044,7 +16218,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>56100</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,7 +16257,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>56100</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16118,7 +16296,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>56100</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16155,7 +16335,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>56100</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16189,10 +16371,14 @@
         <v>-95371.70688143997</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J452" t="n">
+        <v>56100</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16226,10 +16412,14 @@
         <v>-95365.81288143997</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>56400</v>
+      </c>
+      <c r="J453" t="n">
+        <v>56100</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16266,7 +16456,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>56100</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16303,7 +16495,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>56100</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16340,7 +16534,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>56100</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,7 +16573,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>56100</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16414,7 +16612,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>56100</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16451,7 +16651,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>56100</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16485,12 +16687,12 @@
         <v>-95330.50068143995</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>56550</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>56100</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16527,7 +16729,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>56100</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,7 +16768,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>56100</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16601,7 +16807,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>56100</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16638,7 +16846,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>56100</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16675,7 +16885,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>56100</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,7 +16924,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>56100</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,7 +16963,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>56100</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16786,7 +17002,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>56100</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,7 +17041,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>56100</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16860,7 +17080,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>56100</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16897,7 +17119,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>56100</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16934,7 +17158,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>56100</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16971,7 +17197,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>56100</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17008,7 +17236,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>56100</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17045,7 +17275,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>56100</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17082,7 +17314,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>56100</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17119,7 +17353,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>56100</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17156,7 +17392,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>56100</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,7 +17431,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>56100</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,7 +17470,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>56100</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17267,7 +17509,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>56100</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17304,7 +17548,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>56100</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17341,7 +17587,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>56100</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17378,7 +17626,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>56100</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17415,7 +17665,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>56100</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17452,7 +17704,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>56100</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17489,7 +17743,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>56100</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17526,7 +17782,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>56100</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17563,7 +17821,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>56100</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17600,7 +17860,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>56100</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17637,7 +17899,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>56100</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,7 +17938,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>56100</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17711,7 +17977,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>56100</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17748,7 +18016,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>56100</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17785,7 +18055,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>56100</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17822,7 +18094,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>56100</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,7 +18133,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>56100</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17893,10 +18169,14 @@
         <v>-95800.24698143995</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J498" t="n">
+        <v>56100</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17930,10 +18210,14 @@
         <v>-95804.97628143996</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>56000</v>
+      </c>
+      <c r="J499" t="n">
+        <v>56100</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17967,10 +18251,14 @@
         <v>-95804.97628143996</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J500" t="n">
+        <v>56100</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,10 +18292,14 @@
         <v>-95804.97628143996</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J501" t="n">
+        <v>56100</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18041,10 +18333,14 @@
         <v>-95931.80518143995</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>55950</v>
+      </c>
+      <c r="J502" t="n">
+        <v>56100</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18078,10 +18374,14 @@
         <v>-95931.70518143995</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>55800</v>
+      </c>
+      <c r="J503" t="n">
+        <v>56100</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18115,12 +18415,14 @@
         <v>-95960.34628143994</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>55850</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>56100</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18154,12 +18456,14 @@
         <v>-96101.05508143993</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>55750</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>56100</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18193,12 +18497,14 @@
         <v>-96100.88798143993</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>55550</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>56100</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18232,12 +18538,14 @@
         <v>-96100.88798143993</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>55650</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>56100</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18271,12 +18579,14 @@
         <v>-96098.88798143993</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>55650</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>56100</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18288,6 +18598,6 @@
       <c r="M508" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LTC.xlsx
+++ b/BackTest/2020-01-14 BackTest LTC.xlsx
@@ -3223,7 +3223,7 @@
         <v>-730.10304865</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-476.0622479599999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-477.5757479599999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-459.5267479599999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-494.4493479599998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-494.3937441399999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-358.2052441399999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-72.96024413999987</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>209.5283558600001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>172.2055558600001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>320.5360558600001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>318.6791558600002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>443.2544558600001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>430.7789558600001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>431.0819558600001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>421.5239558600001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>421.5239558600001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>482.9738891900001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>479.3528891900002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -10219,11 +10219,17 @@
         <v>-94388.10781677</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>55950</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10258,17 @@
         <v>-94388.10781677</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>55900</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10297,17 @@
         <v>-94390.66551677001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>55900</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10336,17 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>55800</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10375,17 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>55850</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10414,17 @@
         <v>-94375.53161677001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>55850</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10453,17 @@
         <v>-94374.94081677</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>56000</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10496,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10529,17 @@
         <v>-94380.06131677001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>55950</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10568,17 @@
         <v>-94378.06131677001</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>55950</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10607,17 @@
         <v>-94452.43791677001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>56050</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10646,17 @@
         <v>-94452.38097727</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>56000</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10689,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10726,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10763,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10800,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10837,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10874,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10911,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10948,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +10985,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11022,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11059,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11096,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11133,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11170,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11207,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11244,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11281,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11318,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11355,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11392,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11429,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11466,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11499,17 @@
         <v>-94925.50814616997</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>56000</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11538,17 @@
         <v>-94915.30814616998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>56000</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11577,17 @@
         <v>-94915.20814616997</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>56050</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11620,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11653,17 @@
         <v>-94913.53154616996</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>56000</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11692,17 @@
         <v>-94913.53154616996</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>56100</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11731,17 @@
         <v>-94913.15844616997</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>56100</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11770,17 @@
         <v>-94913.15844616997</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>56200</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11809,17 @@
         <v>-94932.00874616997</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>56200</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11848,17 @@
         <v>-94932.00874616997</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>56050</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11887,17 @@
         <v>-94761.01934616997</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>56050</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11926,17 @@
         <v>-94719.35554616997</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>56250</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11969,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +12002,17 @@
         <v>-94720.14004616997</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>56250</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12041,17 @@
         <v>-94780.14004616997</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>56250</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12080,17 @@
         <v>-94714.87554616996</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>56200</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12119,17 @@
         <v>-94664.87554616996</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>56300</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12162,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12199,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12232,15 @@
         <v>-94554.77554616996</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12269,15 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12306,15 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12343,15 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12380,15 @@
         <v>-94660.96864616996</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12421,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12458,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12495,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12532,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12569,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12606,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12643,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12680,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12717,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12754,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12791,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12828,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12865,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12898,15 @@
         <v>-94631.16344616996</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12935,15 @@
         <v>-94703.67974616996</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12972,15 @@
         <v>-94653.67974616996</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13009,15 @@
         <v>-94653.67974616996</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13046,15 @@
         <v>-94668.74664616997</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13083,15 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13120,15 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13157,15 @@
         <v>-94675.09254616997</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +13194,15 @@
         <v>-94674.74012326996</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13231,15 @@
         <v>-94686.88282326996</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13268,15 @@
         <v>-94714.76572326996</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13305,15 @@
         <v>-94694.76572326996</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13342,15 @@
         <v>-94708.75572326996</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13379,15 @@
         <v>-94703.13522326996</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13416,15 @@
         <v>-94705.02352326996</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13453,15 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13490,15 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13527,15 @@
         <v>-94806.01682326997</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13564,15 @@
         <v>-94786.01682326997</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13601,15 @@
         <v>-94826.01682326997</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13638,15 @@
         <v>-94825.99122326997</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13675,15 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13712,15 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13749,15 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13786,15 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13823,15 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13860,15 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13897,15 @@
         <v>-94829.41352326996</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13934,15 @@
         <v>-94830.13472326996</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13971,15 @@
         <v>-94838.24862326996</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +14008,15 @@
         <v>-94836.38562326996</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14049,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +14086,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +14119,15 @@
         <v>-94940.05188143997</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14156,15 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14193,15 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14230,15 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14267,15 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14304,15 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14341,15 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14378,15 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14415,15 @@
         <v>-94885.07668143997</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14452,15 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14489,15 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14526,15 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14563,15 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14600,15 @@
         <v>-94664.16108143998</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14637,15 @@
         <v>-95049.68428143997</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14678,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14715,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14752,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14789,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14826,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14863,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14900,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14937,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14974,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +15011,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +15048,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +15085,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15122,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15159,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15196,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15233,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15270,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15307,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15344,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15381,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15418,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15455,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15492,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15529,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15566,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15603,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15640,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15677,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15714,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15751,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15788,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15821,15 @@
         <v>-95339.78518143998</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15858,15 @@
         <v>-95344.04338143997</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15895,15 @@
         <v>-95364.05438143997</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15936,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15973,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +16010,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +16047,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +16084,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16121,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16158,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16195,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16232,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +16269,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16306,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +16343,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +16380,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +16417,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +16454,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16491,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16528,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16565,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16602,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16639,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16676,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16713,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16750,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16787,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16824,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16861,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16898,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16935,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16972,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +17009,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +17046,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +17083,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +17120,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17157,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17194,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17231,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +17268,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +17305,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +17342,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17379,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17416,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17453,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17490,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17527,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17564,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17601,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17638,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,15 +17671,15 @@
         <v>-95800.24698143995</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>55950</v>
-      </c>
-      <c r="J498" t="n">
-        <v>55950</v>
-      </c>
-      <c r="K498" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16859,12 +17711,10 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>55950</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L499" t="n">
@@ -16898,12 +17748,10 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>55950</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L500" t="n">
@@ -16938,7 +17786,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16971,7 +17823,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17004,7 +17860,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17033,15 +17893,13 @@
         <v>-95960.34628143994</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>55850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
